--- a/Séances de sport.xlsx
+++ b/Séances de sport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solene\Desktop\A CHARLENE\INSTA\Posts_Sport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierrot\Desktop\Apprendre_Site\05_InstaChatoune\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D31E942-5885-46DA-8267-FF557EDFCBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D698AF62-AD94-471C-806F-5B5A40CE1AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="11055" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Yoga" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="843">
   <si>
     <t>Lundi</t>
   </si>
@@ -2403,12 +2403,6 @@
     <t>Intermediate Yoga for Overall Health WITH YOGA WITH BIRD</t>
   </si>
   <si>
-    <t>30 MIN Full Body HIIT</t>
-  </si>
-  <si>
-    <t>50 MIN KICKBOXING CARDIO WORKOUT</t>
-  </si>
-  <si>
     <t>30 Minute Full Body Cardio-HIIT Workout with Juice &amp; Toya</t>
   </si>
   <si>
@@ -2446,9 +2440,6 @@
   </si>
   <si>
     <t>30 Min Cardio Sculpt HIIT with Light Weights WITH ELENI FIT</t>
-  </si>
-  <si>
-    <t>10 MIN SIXPACK WORKOUT</t>
   </si>
   <si>
     <t>20 MIN BACK WORKOUT</t>
@@ -2603,12 +2594,48 @@
   <si>
     <t>45 MIN WORKING OUR WAY INTO HANDSTAND - VINYASA FLOW</t>
   </si>
+  <si>
+    <t>25 MIN Intermediate Yoga for Overall Health</t>
+  </si>
+  <si>
+    <t>8 MIN STANDING INNER THIGH WORKOUT with Océane Andréa</t>
+  </si>
+  <si>
+    <t>30 MIN FULL BODY FAT BURN HIIT WITH MADFIT</t>
+  </si>
+  <si>
+    <t>10 MIN LOSE MUFFIN TOP FAT WITH Angela Kajo</t>
+  </si>
+  <si>
+    <t>50 MIN KICKBOXING CARDIO WORKOUT with NOBADADDICTION</t>
+  </si>
+  <si>
+    <t>30 MIN Full Body HIIT with Sami Clark</t>
+  </si>
+  <si>
+    <t>20 MIN BACK WORKOUT with GROWINGANNANAS</t>
+  </si>
+  <si>
+    <t>15 MIN TONED BACK &amp; CORE with GROWINGANNANAS</t>
+  </si>
+  <si>
+    <t>10 MIN LOWER AB WORKOUT with PAMELA REIF</t>
+  </si>
+  <si>
+    <t>10 MIN SIXPACK WORKOUT with PAMELA REIF</t>
+  </si>
+  <si>
+    <t>10 MIN AB WORKOUT with PAMELA REIF</t>
+  </si>
+  <si>
+    <t>1 hour Yoga - for Flexible HIPS &amp; HAMSTRINGS with Alessandra Oram</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2661,8 +2688,14 @@
       <color rgb="FF000000"/>
       <name val="YACgESME5ew 0"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2704,6 +2737,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2722,7 +2761,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2760,25 +2799,33 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="5" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="3" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="4" builtinId="36"/>
+    <cellStyle name="20 % - Accent2" xfId="2" builtinId="34"/>
+    <cellStyle name="40 % - Accent2" xfId="3" builtinId="35"/>
+    <cellStyle name="60 % - Accent2" xfId="4" builtinId="36"/>
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3059,22 +3106,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84115821-4CE5-4C89-B165-2B8E9F7055EB}">
   <dimension ref="B1:M132"/>
   <sheetViews>
-    <sheetView topLeftCell="J46" workbookViewId="0">
-      <selection activeCell="L63" sqref="L63:M66"/>
+    <sheetView topLeftCell="J49" workbookViewId="0">
+      <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="78.36328125" customWidth="1"/>
-    <col min="3" max="3" width="29.26953125" customWidth="1"/>
+    <col min="2" max="2" width="78.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
     <col min="4" max="4" width="74" customWidth="1"/>
-    <col min="5" max="5" width="29.36328125" customWidth="1"/>
-    <col min="6" max="6" width="74.1796875" customWidth="1"/>
-    <col min="7" max="7" width="29.90625" customWidth="1"/>
-    <col min="8" max="8" width="83.90625" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="74.140625" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" customWidth="1"/>
+    <col min="8" max="8" width="83.85546875" customWidth="1"/>
     <col min="9" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="35.7265625" customWidth="1"/>
-    <col min="11" max="11" width="26.54296875" customWidth="1"/>
+    <col min="10" max="10" width="35.7109375" customWidth="1"/>
+    <col min="11" max="11" width="26.5703125" customWidth="1"/>
     <col min="12" max="12" width="86" customWidth="1"/>
     <col min="13" max="13" width="30" customWidth="1"/>
   </cols>
@@ -3135,7 +3182,7 @@
       <c r="D3" s="14" t="s">
         <v>502</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>503</v>
       </c>
       <c r="F3" s="12" t="s">
@@ -3249,7 +3296,7 @@
       <c r="H8" s="14" t="s">
         <v>530</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="21" t="s">
         <v>531</v>
       </c>
       <c r="L8" t="s">
@@ -3391,7 +3438,7 @@
       <c r="D18" s="14" t="s">
         <v>558</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="21" t="s">
         <v>559</v>
       </c>
       <c r="F18" s="14" t="s">
@@ -3563,19 +3610,19 @@
         <v>525</v>
       </c>
       <c r="D28" s="14"/>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="21" t="s">
         <v>564</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="21" t="s">
         <v>538</v>
       </c>
       <c r="H28" s="14" t="s">
         <v>546</v>
       </c>
-      <c r="I28" s="22" t="s">
+      <c r="I28" s="21" t="s">
         <v>545</v>
       </c>
       <c r="L28" s="14" t="s">
@@ -3586,7 +3633,7 @@
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="22"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14" t="s">
         <v>563</v>
@@ -3733,7 +3780,7 @@
         <v>540</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>581</v>
@@ -3753,7 +3800,7 @@
       <c r="L38" s="14" t="s">
         <v>592</v>
       </c>
-      <c r="M38" s="22" t="s">
+      <c r="M38" s="21" t="s">
         <v>593</v>
       </c>
     </row>
@@ -4017,7 +4064,7 @@
       <c r="L53" s="14" t="s">
         <v>612</v>
       </c>
-      <c r="M53" s="22" t="s">
+      <c r="M53" s="21" t="s">
         <v>613</v>
       </c>
     </row>
@@ -4041,7 +4088,7 @@
       <c r="L55" s="14"/>
       <c r="M55" s="14"/>
     </row>
-    <row r="56" spans="2:13" ht="15.5" customHeight="1">
+    <row r="56" spans="2:13" ht="15.6" customHeight="1">
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
@@ -4051,7 +4098,7 @@
       <c r="L56" s="14"/>
       <c r="M56" s="14"/>
     </row>
-    <row r="57" spans="2:13" ht="14" customHeight="1">
+    <row r="57" spans="2:13" ht="14.1" customHeight="1">
       <c r="B57" s="3" t="s">
         <v>577</v>
       </c>
@@ -4103,7 +4150,7 @@
       <c r="L58" s="14" t="s">
         <v>614</v>
       </c>
-      <c r="M58" s="14" t="s">
+      <c r="M58" s="21" t="s">
         <v>615</v>
       </c>
     </row>
@@ -4345,9 +4392,10 @@
     <hyperlink ref="E28" r:id="rId6" xr:uid="{721D7178-CE07-4AEA-9F15-4D4E46D8C889}"/>
     <hyperlink ref="G28" r:id="rId7" xr:uid="{CF26C9B2-EF00-4141-8A77-9736F682E36F}"/>
     <hyperlink ref="E18" r:id="rId8" xr:uid="{641CBE75-BAA4-4420-B3E9-83933321463B}"/>
+    <hyperlink ref="M58" r:id="rId9" xr:uid="{680A9021-86A9-47BA-8C7D-960EC04021C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -4355,22 +4403,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M135"/>
   <sheetViews>
-    <sheetView topLeftCell="J52" workbookViewId="0">
-      <selection activeCell="L68" sqref="L68:M71"/>
+    <sheetView topLeftCell="G43" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="78.36328125" customWidth="1"/>
-    <col min="3" max="3" width="29.26953125" customWidth="1"/>
+    <col min="2" max="2" width="78.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
     <col min="4" max="4" width="74" customWidth="1"/>
-    <col min="5" max="5" width="29.36328125" customWidth="1"/>
-    <col min="6" max="6" width="74.1796875" customWidth="1"/>
-    <col min="7" max="7" width="29.90625" customWidth="1"/>
-    <col min="8" max="8" width="83.90625" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="74.140625" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" customWidth="1"/>
+    <col min="8" max="8" width="83.85546875" customWidth="1"/>
     <col min="9" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="35.7265625" customWidth="1"/>
-    <col min="11" max="11" width="26.54296875" customWidth="1"/>
+    <col min="10" max="10" width="35.7109375" customWidth="1"/>
+    <col min="11" max="11" width="26.5703125" customWidth="1"/>
     <col min="12" max="12" width="86" customWidth="1"/>
     <col min="13" max="13" width="30" customWidth="1"/>
   </cols>
@@ -5399,7 +5447,7 @@
       <c r="H48" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="I48" s="14" t="s">
+      <c r="I48" s="21" t="s">
         <v>390</v>
       </c>
       <c r="L48" s="14" t="s">
@@ -5529,11 +5577,11 @@
       <c r="L55" s="14"/>
       <c r="M55" s="14"/>
     </row>
-    <row r="56" spans="2:13" ht="15.5" customHeight="1">
+    <row r="56" spans="2:13" ht="15.6" customHeight="1">
       <c r="L56" s="14"/>
       <c r="M56" s="14"/>
     </row>
-    <row r="57" spans="2:13" ht="14" customHeight="1">
+    <row r="57" spans="2:13" ht="14.1" customHeight="1">
       <c r="B57" s="3" t="s">
         <v>39</v>
       </c>
@@ -6489,7 +6537,7 @@
     </row>
     <row r="114" spans="2:13">
       <c r="B114" s="3" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3" t="s">
@@ -6727,7 +6775,7 @@
       <c r="D129" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="E129" s="22" t="s">
+      <c r="E129" s="21" t="s">
         <v>316</v>
       </c>
       <c r="F129" t="s">
@@ -6834,9 +6882,10 @@
   <hyperlinks>
     <hyperlink ref="M38" r:id="rId1" xr:uid="{552D2BB3-2DD8-4737-846D-8357D80E7D9C}"/>
     <hyperlink ref="E129" r:id="rId2" xr:uid="{7262F243-F627-4B4B-9017-99686A879B7F}"/>
+    <hyperlink ref="I48" r:id="rId3" xr:uid="{987B952B-B1E6-463D-9BB9-B98012246152}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -6845,37 +6894,37 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView topLeftCell="E61" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78:H78"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="78" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="27" t="s">
         <v>657</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
         <v>658</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>659</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23" t="s">
+      <c r="H1" s="27"/>
+      <c r="I1" s="27" t="s">
         <v>660</v>
       </c>
-      <c r="J1" s="23"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10">
       <c r="C2" t="s">
@@ -6904,7 +6953,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="28" t="s">
         <v>654</v>
       </c>
       <c r="B3" t="s">
@@ -6924,97 +6973,97 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="24"/>
+      <c r="A4" s="28"/>
       <c r="B4" t="s">
         <v>648</v>
       </c>
       <c r="C4" t="s">
         <v>663</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>52</v>
       </c>
       <c r="E4" t="s">
         <v>664</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G4" t="s">
         <v>665</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="24"/>
+      <c r="A5" s="28"/>
       <c r="B5" t="s">
         <v>649</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>668</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>666</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="25" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>667</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="24"/>
+      <c r="A6" s="28"/>
       <c r="B6" t="s">
         <v>650</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>669</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="25" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="24"/>
+      <c r="A7" s="28"/>
       <c r="B7" t="s">
         <v>651</v>
       </c>
       <c r="C7" t="s">
         <v>681</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="25" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="24"/>
+      <c r="A8" s="28"/>
       <c r="B8" t="s">
         <v>652</v>
       </c>
       <c r="C8" t="s">
         <v>682</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="25" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:10" hidden="1">
-      <c r="A9" s="24"/>
+      <c r="A9" s="29"/>
       <c r="B9" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="28" t="s">
         <v>679</v>
       </c>
       <c r="B10" t="s">
@@ -7034,86 +7083,86 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="24"/>
+      <c r="A11" s="28"/>
       <c r="B11" t="s">
         <v>648</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>685</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>686</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>687</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="24"/>
+      <c r="A12" s="28"/>
       <c r="B12" t="s">
         <v>649</v>
       </c>
       <c r="C12" t="s">
         <v>688</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="7" t="s">
         <v>110</v>
       </c>
       <c r="E12" t="s">
         <v>689</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="7" t="s">
         <v>112</v>
       </c>
       <c r="G12" t="s">
         <v>690</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="7" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="24"/>
+      <c r="A13" s="28"/>
       <c r="B13" t="s">
         <v>650</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>691</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>692</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="24"/>
+      <c r="A14" s="28"/>
       <c r="B14" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="24"/>
+      <c r="A15" s="28"/>
       <c r="B15" t="s">
         <v>652</v>
       </c>
       <c r="C15" t="s">
         <v>693</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="7" t="s">
         <v>82</v>
       </c>
     </row>
@@ -7123,7 +7172,7 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="28" t="s">
         <v>712</v>
       </c>
       <c r="B17" t="s">
@@ -7143,80 +7192,80 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="24"/>
+      <c r="A18" s="28"/>
       <c r="B18" t="s">
         <v>648</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>700</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="7" t="s">
         <v>96</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>701</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="24"/>
+      <c r="A19" s="28"/>
       <c r="B19" t="s">
         <v>649</v>
       </c>
       <c r="C19" t="s">
         <v>702</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="7" t="s">
         <v>116</v>
       </c>
       <c r="E19" t="s">
         <v>688</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="7" t="s">
         <v>117</v>
       </c>
       <c r="G19" t="s">
         <v>703</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="24"/>
+      <c r="A20" s="28"/>
       <c r="B20" t="s">
         <v>650</v>
       </c>
       <c r="C20" t="s">
         <v>704</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="7" t="s">
         <v>173</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>705</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="7" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="24"/>
+      <c r="A21" s="28"/>
       <c r="B21" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="24"/>
+      <c r="A22" s="28"/>
       <c r="B22" t="s">
         <v>652</v>
       </c>
       <c r="C22" t="s">
         <v>706</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="7" t="s">
         <v>470</v>
       </c>
     </row>
@@ -7226,7 +7275,7 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="28" t="s">
         <v>713</v>
       </c>
       <c r="B24" t="s">
@@ -7240,25 +7289,25 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="24"/>
+      <c r="A25" s="28"/>
       <c r="B25" t="s">
         <v>648</v>
       </c>
       <c r="C25" t="s">
         <v>714</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="7" t="s">
         <v>360</v>
       </c>
       <c r="E25" t="s">
         <v>715</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="7" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="24"/>
+      <c r="A26" s="28"/>
       <c r="B26" t="s">
         <v>649</v>
       </c>
@@ -7276,25 +7325,25 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="24"/>
+      <c r="A27" s="28"/>
       <c r="B27" t="s">
         <v>650</v>
       </c>
       <c r="C27" t="s">
         <v>718</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="7" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="24"/>
+      <c r="A28" s="28"/>
       <c r="B28" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="24"/>
+      <c r="A29" s="28"/>
       <c r="B29" t="s">
         <v>652</v>
       </c>
@@ -7311,7 +7360,7 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="28" t="s">
         <v>738</v>
       </c>
       <c r="B31" t="s">
@@ -7325,25 +7374,25 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="24"/>
+      <c r="A32" s="28"/>
       <c r="B32" t="s">
         <v>648</v>
       </c>
       <c r="C32" t="s">
         <v>725</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="7" t="s">
         <v>150</v>
       </c>
       <c r="E32" t="s">
         <v>726</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="7" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="24"/>
+      <c r="A33" s="28"/>
       <c r="B33" t="s">
         <v>649</v>
       </c>
@@ -7367,38 +7416,38 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="24"/>
+      <c r="A34" s="28"/>
       <c r="B34" t="s">
         <v>650</v>
       </c>
       <c r="C34" t="s">
         <v>730</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="7" t="s">
         <v>388</v>
       </c>
       <c r="E34" t="s">
         <v>731</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="24"/>
+      <c r="A35" s="28"/>
       <c r="B35" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="24"/>
+      <c r="A36" s="28"/>
       <c r="B36" t="s">
         <v>652</v>
       </c>
       <c r="C36" t="s">
         <v>732</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="7" t="s">
         <v>476</v>
       </c>
     </row>
@@ -7408,7 +7457,7 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="28" t="s">
         <v>739</v>
       </c>
       <c r="B38" t="s">
@@ -7417,31 +7466,31 @@
       <c r="C38" t="s">
         <v>746</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="7" t="s">
         <v>90</v>
       </c>
       <c r="E38" t="s">
         <v>747</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="24"/>
+      <c r="A39" s="28"/>
       <c r="B39" t="s">
         <v>648</v>
       </c>
       <c r="C39" t="s">
         <v>748</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="7" t="s">
         <v>61</v>
       </c>
       <c r="E39" t="s">
-        <v>749</v>
-      </c>
-      <c r="F39" t="s">
+        <v>834</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>59</v>
       </c>
       <c r="G39" t="s">
@@ -7452,19 +7501,19 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="24"/>
+      <c r="A40" s="28"/>
       <c r="B40" t="s">
         <v>649</v>
       </c>
       <c r="C40" t="s">
         <v>751</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="7" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="24"/>
+      <c r="A41" s="28"/>
       <c r="B41" t="s">
         <v>650</v>
       </c>
@@ -7476,13 +7525,13 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="24"/>
+      <c r="A42" s="28"/>
       <c r="B42" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="24"/>
+      <c r="A43" s="28"/>
       <c r="B43" t="s">
         <v>652</v>
       </c>
@@ -7499,7 +7548,7 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="28" t="s">
         <v>740</v>
       </c>
       <c r="B45" t="s">
@@ -7519,25 +7568,25 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="24"/>
+      <c r="A46" s="28"/>
       <c r="B46" t="s">
         <v>648</v>
       </c>
       <c r="C46" t="s">
         <v>759</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="7" t="s">
         <v>152</v>
       </c>
       <c r="E46" t="s">
         <v>760</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="24"/>
+      <c r="A47" s="28"/>
       <c r="B47" t="s">
         <v>649</v>
       </c>
@@ -7561,29 +7610,32 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="24"/>
+      <c r="A48" s="28"/>
       <c r="B48" t="s">
         <v>650</v>
       </c>
       <c r="C48" t="s">
         <v>761</v>
       </c>
+      <c r="D48" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="24"/>
+      <c r="A49" s="28"/>
       <c r="B49" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="24"/>
+      <c r="A50" s="28"/>
       <c r="B50" t="s">
         <v>652</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>772</v>
-      </c>
-      <c r="D50" t="s">
+        <v>835</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>472</v>
       </c>
     </row>
@@ -7593,450 +7645,450 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="28" t="s">
         <v>741</v>
       </c>
       <c r="B52" t="s">
         <v>647</v>
       </c>
       <c r="C52" t="s">
-        <v>771</v>
+        <v>836</v>
       </c>
       <c r="D52" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="24"/>
+      <c r="A53" s="28"/>
       <c r="B53" t="s">
         <v>648</v>
       </c>
       <c r="C53" t="s">
-        <v>773</v>
-      </c>
-      <c r="D53" t="s">
+        <v>771</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="24"/>
+      <c r="A54" s="28"/>
       <c r="B54" t="s">
         <v>649</v>
       </c>
       <c r="C54" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D54" t="s">
         <v>36</v>
       </c>
       <c r="E54" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F54" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="24"/>
+      <c r="A55" s="28"/>
       <c r="B55" t="s">
         <v>650</v>
       </c>
       <c r="C55" t="s">
-        <v>776</v>
-      </c>
-      <c r="D55" t="s">
+        <v>774</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="24"/>
+      <c r="A56" s="28"/>
       <c r="B56" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="24"/>
+      <c r="A57" s="28"/>
       <c r="B57" t="s">
         <v>652</v>
       </c>
       <c r="C57" t="s">
-        <v>804</v>
-      </c>
-      <c r="D57" t="s">
+        <v>801</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15" customHeight="1">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="28" t="s">
         <v>742</v>
       </c>
       <c r="B58" t="s">
         <v>647</v>
       </c>
       <c r="C58" t="s">
-        <v>784</v>
-      </c>
-      <c r="D58" t="s">
+        <v>782</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>372</v>
       </c>
       <c r="E58" t="s">
-        <v>783</v>
-      </c>
-      <c r="F58" t="s">
+        <v>781</v>
+      </c>
+      <c r="F58" s="7" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="24"/>
+      <c r="A59" s="28"/>
       <c r="B59" t="s">
         <v>648</v>
       </c>
       <c r="C59" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D59" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="24"/>
+      <c r="A60" s="28"/>
       <c r="B60" t="s">
         <v>649</v>
       </c>
       <c r="C60" t="s">
-        <v>63</v>
-      </c>
-      <c r="D60" t="s">
+        <v>839</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>275</v>
       </c>
       <c r="E60" t="s">
-        <v>786</v>
-      </c>
-      <c r="F60" t="s">
+        <v>840</v>
+      </c>
+      <c r="F60" s="7" t="s">
         <v>277</v>
       </c>
       <c r="G60" t="s">
-        <v>65</v>
-      </c>
-      <c r="H60" t="s">
+        <v>841</v>
+      </c>
+      <c r="H60" s="7" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="24"/>
+      <c r="A61" s="28"/>
       <c r="B61" t="s">
         <v>650</v>
       </c>
       <c r="C61" t="s">
-        <v>787</v>
-      </c>
-      <c r="D61" t="s">
+        <v>837</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>128</v>
       </c>
       <c r="E61" t="s">
-        <v>129</v>
+        <v>838</v>
       </c>
       <c r="F61" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="24"/>
+      <c r="A62" s="28"/>
       <c r="B62" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="24"/>
+      <c r="A63" s="28"/>
       <c r="B63" t="s">
         <v>652</v>
       </c>
       <c r="C63" t="s">
-        <v>788</v>
-      </c>
-      <c r="D63" t="s">
+        <v>785</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="28" t="s">
         <v>743</v>
       </c>
       <c r="B64" t="s">
         <v>647</v>
       </c>
       <c r="C64" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D64" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="24"/>
+      <c r="A65" s="28"/>
       <c r="B65" t="s">
         <v>648</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>796</v>
-      </c>
-      <c r="D65" t="s">
+        <v>793</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="24"/>
+      <c r="A66" s="28"/>
       <c r="B66" t="s">
         <v>649</v>
       </c>
       <c r="C66" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D66" t="s">
         <v>29</v>
       </c>
       <c r="E66" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="F66" t="s">
         <v>31</v>
       </c>
       <c r="G66" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="H66" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="24"/>
+      <c r="A67" s="28"/>
       <c r="B67" t="s">
         <v>650</v>
       </c>
       <c r="C67" t="s">
-        <v>797</v>
-      </c>
-      <c r="D67" t="s">
+        <v>794</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="24"/>
+      <c r="A68" s="28"/>
       <c r="B68" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="24"/>
+      <c r="A69" s="28"/>
       <c r="B69" t="s">
         <v>652</v>
       </c>
       <c r="C69" t="s">
         <v>732</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="7" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="24" t="s">
+      <c r="A70" s="28" t="s">
         <v>744</v>
       </c>
       <c r="B70" t="s">
         <v>647</v>
       </c>
       <c r="C70" t="s">
-        <v>805</v>
-      </c>
-      <c r="D70" t="s">
+        <v>802</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>285</v>
       </c>
       <c r="E70" t="s">
-        <v>806</v>
-      </c>
-      <c r="F70" t="s">
+        <v>803</v>
+      </c>
+      <c r="F70" s="7" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="24"/>
+      <c r="A71" s="28"/>
       <c r="B71" t="s">
         <v>648</v>
       </c>
       <c r="C71" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D71" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="24"/>
+      <c r="A72" s="28"/>
       <c r="B72" t="s">
         <v>649</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>808</v>
-      </c>
-      <c r="D72" t="s">
+        <v>805</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E72" t="s">
-        <v>809</v>
-      </c>
-      <c r="F72" t="s">
+        <v>806</v>
+      </c>
+      <c r="F72" s="7" t="s">
         <v>105</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>810</v>
-      </c>
-      <c r="H72" t="s">
+        <v>807</v>
+      </c>
+      <c r="H72" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="24"/>
+      <c r="A73" s="28"/>
       <c r="B73" t="s">
         <v>650</v>
       </c>
       <c r="C73" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D73" t="s">
         <v>47</v>
       </c>
       <c r="E73" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="F73" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="24"/>
+      <c r="A74" s="28"/>
       <c r="B74" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="24"/>
+      <c r="A75" s="28"/>
       <c r="B75" t="s">
         <v>652</v>
       </c>
       <c r="C75" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D75" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="24" t="s">
+      <c r="A76" s="28" t="s">
         <v>745</v>
       </c>
       <c r="B76" t="s">
         <v>647</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D76" t="s">
         <v>407</v>
       </c>
       <c r="E76" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="F76" t="s">
         <v>409</v>
       </c>
       <c r="G76" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="H76" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="24"/>
+      <c r="A77" s="28"/>
       <c r="B77" t="s">
         <v>648</v>
       </c>
       <c r="C77" t="s">
         <v>336</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="7" t="s">
         <v>337</v>
       </c>
       <c r="E77" t="s">
-        <v>822</v>
-      </c>
-      <c r="F77" t="s">
+        <v>819</v>
+      </c>
+      <c r="F77" s="7" t="s">
         <v>333</v>
       </c>
       <c r="G77" t="s">
-        <v>823</v>
-      </c>
-      <c r="H77" t="s">
+        <v>820</v>
+      </c>
+      <c r="H77" s="7" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="24"/>
+      <c r="A78" s="28"/>
       <c r="B78" t="s">
         <v>649</v>
       </c>
       <c r="C78" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D78" t="s">
         <v>312</v>
       </c>
       <c r="E78" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F78" t="s">
         <v>314</v>
       </c>
       <c r="G78" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="H78" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="24"/>
+      <c r="A79" s="28"/>
       <c r="B79" t="s">
         <v>650</v>
       </c>
       <c r="C79" t="s">
-        <v>821</v>
-      </c>
-      <c r="D79" t="s">
+        <v>818</v>
+      </c>
+      <c r="D79" s="7" t="s">
         <v>298</v>
       </c>
       <c r="E79" t="s">
-        <v>820</v>
-      </c>
-      <c r="F79" t="s">
+        <v>817</v>
+      </c>
+      <c r="F79" s="7" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="24"/>
+      <c r="A80" s="28"/>
       <c r="B80" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="24"/>
+      <c r="A81" s="28"/>
       <c r="B81" t="s">
         <v>652</v>
       </c>
       <c r="C81" t="s">
         <v>732</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="7" t="s">
         <v>476</v>
       </c>
     </row>
@@ -8074,6 +8126,72 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D43" r:id="rId1" xr:uid="{2FAFEBFD-7056-4C25-BF2F-94A567402435}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{E60FF371-E544-47A3-9AAE-602A1B598A16}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{2BA9BA5C-4C93-47E4-BEA0-F662D9682E6D}"/>
+    <hyperlink ref="H4" r:id="rId4" xr:uid="{25D625C8-225C-42F3-B273-3B357BEA9780}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{5DD7B8AF-FFC0-4B90-88BF-5032007D7A3B}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{D56A60FF-41AA-4636-8B56-38CE673171E4}"/>
+    <hyperlink ref="H5" r:id="rId7" xr:uid="{034E8903-2C23-400D-BC7E-7F11B058E034}"/>
+    <hyperlink ref="D6" r:id="rId8" xr:uid="{4A6510B4-4CDB-40CA-9356-FBC0B23F7885}"/>
+    <hyperlink ref="D8" r:id="rId9" xr:uid="{0334702F-5F95-486F-B96A-7FEA68D8E3EF}"/>
+    <hyperlink ref="D7" r:id="rId10" xr:uid="{80EDC712-755E-4B4B-AC28-0B7EAE672105}"/>
+    <hyperlink ref="D11" r:id="rId11" xr:uid="{D7766CFB-9C5B-45C8-90AF-7B05903C8E00}"/>
+    <hyperlink ref="F11" r:id="rId12" xr:uid="{5075446A-4B62-4F36-9DE1-10CBA7D0C0A6}"/>
+    <hyperlink ref="H11" r:id="rId13" xr:uid="{5FCCDBB9-6A2A-4946-BAF8-0009BA25120D}"/>
+    <hyperlink ref="D12" r:id="rId14" xr:uid="{83F8A73D-A30E-4092-B4C9-156F566593C7}"/>
+    <hyperlink ref="F12" r:id="rId15" xr:uid="{162EE237-F098-4AD7-9411-67BC901BFDDA}"/>
+    <hyperlink ref="H12" r:id="rId16" xr:uid="{746AD196-1EC2-4CFB-AF2A-44F51A75BA0E}"/>
+    <hyperlink ref="D13" r:id="rId17" xr:uid="{879F30D0-BC99-44DC-9A65-2B7AD1EF1EF2}"/>
+    <hyperlink ref="F13" r:id="rId18" xr:uid="{E8C83B82-CE60-4893-8281-514D3D88ECD6}"/>
+    <hyperlink ref="D15" r:id="rId19" xr:uid="{F3FDEC48-5DD9-4424-BCA6-5C03F9B8C79B}"/>
+    <hyperlink ref="D18" r:id="rId20" xr:uid="{E0695027-271E-482F-9CD8-AADA88C7A56D}"/>
+    <hyperlink ref="F18" r:id="rId21" xr:uid="{7F6CC9B5-90E0-4C8D-8D55-7A3A550AC2FC}"/>
+    <hyperlink ref="D19" r:id="rId22" xr:uid="{AD0F025C-A92F-42FE-990B-E1485326B4AF}"/>
+    <hyperlink ref="F19" r:id="rId23" xr:uid="{5A42CDA2-F626-42A7-8DBF-1B1B23710D6F}"/>
+    <hyperlink ref="H19" r:id="rId24" xr:uid="{3BAA5899-1673-4A80-8D34-E2F709CA104F}"/>
+    <hyperlink ref="D20" r:id="rId25" xr:uid="{655F9B66-1407-4B7F-8D6D-6294389FC932}"/>
+    <hyperlink ref="F20" r:id="rId26" xr:uid="{50E16B16-DB3E-478D-B99C-D4B316C86300}"/>
+    <hyperlink ref="D22" r:id="rId27" xr:uid="{C7A11F54-2496-4494-8BD2-A7F06CB3D692}"/>
+    <hyperlink ref="D25" r:id="rId28" xr:uid="{F7F3011E-6297-468D-A085-8FF595A6ABFB}"/>
+    <hyperlink ref="F25" r:id="rId29" xr:uid="{5C9CBFC0-53D2-49F0-ADEE-475131A8910A}"/>
+    <hyperlink ref="D27" r:id="rId30" xr:uid="{A5E26F0C-0CF2-47B9-8B34-D30F0CDB122F}"/>
+    <hyperlink ref="D32" r:id="rId31" xr:uid="{0FE641C4-BF49-4A5E-ADFA-045B65CDA97B}"/>
+    <hyperlink ref="F32" r:id="rId32" xr:uid="{4030649B-0E6B-4FF0-802B-B52D40E216BF}"/>
+    <hyperlink ref="D34" r:id="rId33" xr:uid="{FB98A7F6-4ABD-4185-8B93-82A879ED25BB}"/>
+    <hyperlink ref="F34" r:id="rId34" xr:uid="{DB98C151-E6D1-436E-9388-682A28633706}"/>
+    <hyperlink ref="D36" r:id="rId35" xr:uid="{55DC49EC-D225-4D98-94D5-80EAA6B1E0EA}"/>
+    <hyperlink ref="F39" r:id="rId36" xr:uid="{850B2639-26BB-4607-BD3E-7D5FC4D3DE5C}"/>
+    <hyperlink ref="D38" r:id="rId37" xr:uid="{FEEF4EAE-4FC9-4B95-A546-F7D2C95E6892}"/>
+    <hyperlink ref="F38" r:id="rId38" xr:uid="{55F9C470-3583-425A-8AB2-530A81CD93E7}"/>
+    <hyperlink ref="D40" r:id="rId39" xr:uid="{26A1286B-9FCF-45DF-8261-1E60497FAFA1}"/>
+    <hyperlink ref="D46" r:id="rId40" xr:uid="{B2E9C26F-7F71-42D4-919B-B8121A61D254}"/>
+    <hyperlink ref="F46" r:id="rId41" xr:uid="{E1A6F067-A0D1-4E4A-AE28-CD95AE03D1BD}"/>
+    <hyperlink ref="D50" r:id="rId42" xr:uid="{A85A59B8-11D3-4D06-BB25-8FFC54FF6348}"/>
+    <hyperlink ref="D53" r:id="rId43" xr:uid="{E74B361F-8A20-4439-AFD5-242DBD2D11E3}"/>
+    <hyperlink ref="D55" r:id="rId44" xr:uid="{E32A2135-C2DA-433D-BAB0-3516074C557A}"/>
+    <hyperlink ref="D57" r:id="rId45" xr:uid="{415C415F-EF61-4C56-A983-7279C7C5D613}"/>
+    <hyperlink ref="D58" r:id="rId46" xr:uid="{AC42EDD9-98D3-4422-AD02-93DBF6820FEC}"/>
+    <hyperlink ref="F58" r:id="rId47" xr:uid="{DDF5DB7F-36B8-4F85-8AC1-08F94A148865}"/>
+    <hyperlink ref="D60" r:id="rId48" xr:uid="{B5237719-2FA1-4A61-BE88-5FDBBFB32553}"/>
+    <hyperlink ref="F60" r:id="rId49" xr:uid="{57151DF4-0CF8-4EE2-BD88-FDCA0D537399}"/>
+    <hyperlink ref="H60" r:id="rId50" xr:uid="{6871C9DB-8AD7-45BD-832E-40D9A4DE6D06}"/>
+    <hyperlink ref="D63" r:id="rId51" xr:uid="{0B45093C-8AF5-40CC-823B-86F20D92A4CB}"/>
+    <hyperlink ref="D65" r:id="rId52" xr:uid="{10DFC54B-4595-4AFB-AA4D-B6C304EFF4D3}"/>
+    <hyperlink ref="D67" r:id="rId53" xr:uid="{CFDFC9CB-3BDA-4380-B72B-3A4794DEF852}"/>
+    <hyperlink ref="D69" r:id="rId54" xr:uid="{3F9106AD-6300-46AB-BBE7-BFB6C8C14E33}"/>
+    <hyperlink ref="D70" r:id="rId55" xr:uid="{6ABA1698-C1BC-490F-9E37-22F2E3E3A596}"/>
+    <hyperlink ref="F70" r:id="rId56" xr:uid="{E63ECDDE-AD32-4B0A-A99D-62DB0DD62914}"/>
+    <hyperlink ref="D72" r:id="rId57" xr:uid="{E04104D0-713E-40CD-812B-785067AFC9F6}"/>
+    <hyperlink ref="F72" r:id="rId58" xr:uid="{4C0CCD87-87C6-4E0E-BBDC-6EE35EF63B6E}"/>
+    <hyperlink ref="H72" r:id="rId59" xr:uid="{6165D18C-1683-4B41-83F4-EB1A69E0D6DA}"/>
+    <hyperlink ref="D77" r:id="rId60" xr:uid="{DEEBAB5D-050D-497D-80AB-56CC1C88F629}"/>
+    <hyperlink ref="F77" r:id="rId61" xr:uid="{999FCE3C-7B30-49EC-B07F-E316C7BCF1E0}"/>
+    <hyperlink ref="H77" r:id="rId62" xr:uid="{A4566816-1F6E-49DF-A54A-8BC02CBD1DA5}"/>
+    <hyperlink ref="D79" r:id="rId63" xr:uid="{C68CF77F-78DF-4652-8FED-40A524AFA557}"/>
+    <hyperlink ref="F79" r:id="rId64" xr:uid="{82F52A67-09AB-42A7-89DE-CE1EBB721398}"/>
+    <hyperlink ref="D81" r:id="rId65" xr:uid="{A0295509-FA43-4188-86EF-0EBD284E3018}"/>
+    <hyperlink ref="D39" r:id="rId66" xr:uid="{5A3D370B-8E02-417E-AB94-3D90BB350C35}"/>
+    <hyperlink ref="D61" r:id="rId67" xr:uid="{23DD4C0C-6518-4B49-A1A2-5A4B83D391EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8084,37 +8202,37 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81:D81"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="89.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="78.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="27" t="s">
         <v>657</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
         <v>658</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>659</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23" t="s">
+      <c r="H1" s="27"/>
+      <c r="I1" s="27" t="s">
         <v>660</v>
       </c>
-      <c r="J1" s="23"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10">
       <c r="C2" t="s">
@@ -8143,7 +8261,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="28" t="s">
         <v>654</v>
       </c>
       <c r="B3" t="s">
@@ -8152,14 +8270,14 @@
       <c r="C3" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="25" t="s">
         <v>499</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="24"/>
+      <c r="A4" s="28"/>
       <c r="B4" t="s">
         <v>648</v>
       </c>
@@ -8177,14 +8295,14 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="24"/>
+      <c r="A5" s="28"/>
       <c r="B5" t="s">
         <v>649</v>
       </c>
       <c r="C5" t="s">
         <v>674</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>622</v>
       </c>
       <c r="E5" s="15"/>
@@ -8193,7 +8311,7 @@
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="24"/>
+      <c r="A6" s="28"/>
       <c r="B6" t="s">
         <v>650</v>
       </c>
@@ -8211,37 +8329,37 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="24"/>
+      <c r="A7" s="28"/>
       <c r="B7" t="s">
         <v>651</v>
       </c>
       <c r="C7" t="s">
         <v>681</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="25" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="24"/>
+      <c r="A8" s="28"/>
       <c r="B8" t="s">
         <v>652</v>
       </c>
       <c r="C8" t="s">
         <v>678</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="25" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:10" hidden="1">
-      <c r="A9" s="24"/>
+      <c r="A9" s="29"/>
       <c r="B9" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="28" t="s">
         <v>679</v>
       </c>
       <c r="B10" t="s">
@@ -8250,24 +8368,24 @@
       <c r="C10" s="19" t="s">
         <v>680</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="7" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="24"/>
+      <c r="A11" s="28"/>
       <c r="B11" t="s">
         <v>648</v>
       </c>
       <c r="C11" t="s">
         <v>696</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="7" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="24"/>
+      <c r="A12" s="28"/>
       <c r="B12" t="s">
         <v>649</v>
       </c>
@@ -8279,7 +8397,7 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="24"/>
+      <c r="A13" s="28"/>
       <c r="B13" t="s">
         <v>650</v>
       </c>
@@ -8291,20 +8409,20 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="24"/>
+      <c r="A14" s="28"/>
       <c r="B14" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="24"/>
+      <c r="A15" s="28"/>
       <c r="B15" t="s">
         <v>652</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>697</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="7" t="s">
         <v>565</v>
       </c>
     </row>
@@ -8314,7 +8432,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="28" t="s">
         <v>712</v>
       </c>
       <c r="B17" t="s">
@@ -8323,24 +8441,24 @@
       <c r="C17" s="19" t="s">
         <v>707</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="7" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="24"/>
+      <c r="A18" s="28"/>
       <c r="B18" t="s">
         <v>648</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>708</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="25" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="24"/>
+      <c r="A19" s="28"/>
       <c r="B19" t="s">
         <v>649</v>
       </c>
@@ -8352,7 +8470,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="24"/>
+      <c r="A20" s="28"/>
       <c r="B20" t="s">
         <v>650</v>
       </c>
@@ -8364,20 +8482,20 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="24"/>
+      <c r="A21" s="28"/>
       <c r="B21" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="24"/>
+      <c r="A22" s="28"/>
       <c r="B22" t="s">
         <v>652</v>
       </c>
       <c r="C22" t="s">
         <v>711</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="7" t="s">
         <v>556</v>
       </c>
     </row>
@@ -8387,7 +8505,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="28" t="s">
         <v>713</v>
       </c>
       <c r="B24" t="s">
@@ -8396,12 +8514,12 @@
       <c r="C24" t="s">
         <v>720</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="7" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="24"/>
+      <c r="A25" s="28"/>
       <c r="B25" t="s">
         <v>648</v>
       </c>
@@ -8419,44 +8537,44 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="24"/>
+      <c r="A26" s="28"/>
       <c r="B26" t="s">
         <v>649</v>
       </c>
       <c r="C26" t="s">
         <v>722</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="7" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="24"/>
+      <c r="A27" s="28"/>
       <c r="B27" t="s">
         <v>650</v>
       </c>
       <c r="C27" t="s">
         <v>721</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="7" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="24"/>
+      <c r="A28" s="28"/>
       <c r="B28" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="24"/>
+      <c r="A29" s="28"/>
       <c r="B29" t="s">
         <v>652</v>
       </c>
       <c r="C29" t="s">
         <v>723</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="7" t="s">
         <v>586</v>
       </c>
     </row>
@@ -8465,8 +8583,8 @@
         <v>653</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A31" s="24" t="s">
+    <row r="31" spans="1:6" ht="14.45" customHeight="1">
+      <c r="A31" s="28" t="s">
         <v>738</v>
       </c>
       <c r="B31" t="s">
@@ -8475,12 +8593,12 @@
       <c r="C31" t="s">
         <v>733</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="7" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="24"/>
+      <c r="A32" s="28"/>
       <c r="B32" t="s">
         <v>648</v>
       </c>
@@ -8492,19 +8610,19 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="24"/>
+      <c r="A33" s="28"/>
       <c r="B33" t="s">
         <v>649</v>
       </c>
       <c r="C33" t="s">
         <v>735</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="7" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="24"/>
+      <c r="A34" s="28"/>
       <c r="B34" t="s">
         <v>650</v>
       </c>
@@ -8516,13 +8634,13 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="24"/>
+      <c r="A35" s="28"/>
       <c r="B35" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="24"/>
+      <c r="A36" s="28"/>
       <c r="B36" t="s">
         <v>652</v>
       </c>
@@ -8533,13 +8651,13 @@
         <v>593</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.5" hidden="1" customHeight="1">
+    <row r="37" spans="1:6" ht="14.45" hidden="1" customHeight="1">
       <c r="B37" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A38" s="24" t="s">
+    <row r="38" spans="1:6" ht="14.45" customHeight="1">
+      <c r="A38" s="28" t="s">
         <v>739</v>
       </c>
       <c r="B38" t="s">
@@ -8548,24 +8666,24 @@
       <c r="C38" s="19" t="s">
         <v>754</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="7" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="24"/>
+      <c r="A39" s="28"/>
       <c r="B39" t="s">
         <v>648</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="22" t="s">
         <v>755</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="7" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="24"/>
+      <c r="A40" s="28"/>
       <c r="B40" t="s">
         <v>649</v>
       </c>
@@ -8577,42 +8695,42 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="24"/>
+      <c r="A41" s="28"/>
       <c r="B41" t="s">
         <v>650</v>
       </c>
       <c r="C41" t="s">
         <v>597</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="7" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="24"/>
+      <c r="A42" s="28"/>
       <c r="B42" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A43" s="24"/>
+    <row r="43" spans="1:6" ht="14.45" customHeight="1">
+      <c r="A43" s="28"/>
       <c r="B43" t="s">
         <v>652</v>
       </c>
       <c r="C43" t="s">
         <v>723</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="7" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.5" hidden="1" customHeight="1">
+    <row r="44" spans="1:6" ht="14.45" hidden="1" customHeight="1">
       <c r="B44" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="28" t="s">
         <v>740</v>
       </c>
       <c r="B45" t="s">
@@ -8621,18 +8739,18 @@
       <c r="C45" t="s">
         <v>764</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="7" t="s">
         <v>515</v>
       </c>
       <c r="E45" t="s">
         <v>765</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="7" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="24"/>
+      <c r="A46" s="28"/>
       <c r="B46" t="s">
         <v>648</v>
       </c>
@@ -8644,19 +8762,19 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="24"/>
+      <c r="A47" s="28"/>
       <c r="B47" t="s">
         <v>649</v>
       </c>
       <c r="C47" t="s">
         <v>639</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="7" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="24"/>
+      <c r="A48" s="28"/>
       <c r="B48" t="s">
         <v>650</v>
       </c>
@@ -8667,14 +8785,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A49" s="24"/>
+    <row r="49" spans="1:6" ht="14.45" customHeight="1">
+      <c r="A49" s="28"/>
       <c r="B49" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="24"/>
+      <c r="A50" s="28"/>
       <c r="B50" t="s">
         <v>652</v>
       </c>
@@ -8685,118 +8803,118 @@
         <v>596</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="14.5" hidden="1" customHeight="1">
+    <row r="51" spans="1:6" ht="14.45" hidden="1" customHeight="1">
       <c r="B51" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="28" t="s">
         <v>741</v>
       </c>
       <c r="B52" t="s">
         <v>647</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>780</v>
-      </c>
-      <c r="D52" t="s">
+        <v>778</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="24"/>
+      <c r="A53" s="28"/>
       <c r="B53" t="s">
         <v>648</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D53" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="24"/>
+      <c r="A54" s="28"/>
       <c r="B54" t="s">
         <v>649</v>
       </c>
       <c r="C54" t="s">
-        <v>781</v>
-      </c>
-      <c r="D54" t="s">
+        <v>779</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="24"/>
+      <c r="A55" s="28"/>
       <c r="B55" t="s">
         <v>650</v>
       </c>
-      <c r="C55" s="26" t="s">
-        <v>793</v>
+      <c r="C55" s="23" t="s">
+        <v>790</v>
       </c>
       <c r="D55" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="24"/>
+      <c r="A56" s="28"/>
       <c r="B56" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="24"/>
+      <c r="A57" s="28"/>
       <c r="B57" t="s">
         <v>652</v>
       </c>
       <c r="C57" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D57" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="28" t="s">
         <v>742</v>
       </c>
       <c r="B58" t="s">
         <v>647</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D58" t="s">
         <v>536</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="F58" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="24"/>
+      <c r="A59" s="28"/>
       <c r="B59" t="s">
         <v>648</v>
       </c>
       <c r="C59" t="s">
-        <v>791</v>
-      </c>
-      <c r="D59" t="s">
+        <v>788</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>556</v>
       </c>
       <c r="E59" s="19"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="24"/>
+      <c r="A60" s="28"/>
       <c r="B60" t="s">
         <v>649</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="22" t="s">
         <v>755</v>
       </c>
       <c r="D60" t="s">
@@ -8804,205 +8922,205 @@
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="24"/>
+      <c r="A61" s="28"/>
       <c r="B61" t="s">
         <v>650</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>792</v>
-      </c>
-      <c r="D61" t="s">
+        <v>789</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="24"/>
+      <c r="A62" s="28"/>
       <c r="B62" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="24"/>
+      <c r="A63" s="28"/>
       <c r="B63" t="s">
         <v>652</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D63" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="28" t="s">
         <v>743</v>
       </c>
       <c r="B64" t="s">
         <v>647</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>801</v>
-      </c>
-      <c r="D64" t="s">
+        <v>798</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="24"/>
+      <c r="A65" s="28"/>
       <c r="B65" t="s">
         <v>648</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D65" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="24"/>
+      <c r="A66" s="28"/>
       <c r="B66" t="s">
         <v>649</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="24"/>
+      <c r="A67" s="28"/>
       <c r="B67" t="s">
         <v>650</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D67" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="24"/>
+      <c r="A68" s="28"/>
       <c r="B68" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="24"/>
+      <c r="A69" s="28"/>
       <c r="B69" t="s">
         <v>652</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="24" t="s">
+      <c r="A70" s="28" t="s">
         <v>744</v>
       </c>
       <c r="B70" t="s">
         <v>647</v>
       </c>
       <c r="C70" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D70" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="24"/>
+      <c r="A71" s="28"/>
       <c r="B71" t="s">
         <v>648</v>
       </c>
       <c r="C71" t="s">
-        <v>791</v>
-      </c>
-      <c r="D71" t="s">
+        <v>788</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="24"/>
+      <c r="A72" s="28"/>
       <c r="B72" t="s">
         <v>649</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D72" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="24"/>
+      <c r="A73" s="28"/>
       <c r="B73" t="s">
         <v>650</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>792</v>
-      </c>
-      <c r="D73" t="s">
-        <v>578</v>
+        <v>842</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="24"/>
+      <c r="A74" s="28"/>
       <c r="B74" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="24"/>
+      <c r="A75" s="28"/>
       <c r="B75" t="s">
         <v>652</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="D75" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="24" t="s">
+      <c r="A76" s="28" t="s">
         <v>745</v>
       </c>
       <c r="B76" t="s">
         <v>647</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>830</v>
-      </c>
-      <c r="D76" t="s">
+        <v>827</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>535</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>831</v>
-      </c>
-      <c r="F76" t="s">
+        <v>828</v>
+      </c>
+      <c r="F76" s="7" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="24"/>
+      <c r="A77" s="28"/>
       <c r="B77" t="s">
         <v>648</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D77" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="24"/>
+      <c r="A78" s="28"/>
       <c r="B78" t="s">
         <v>649</v>
       </c>
@@ -9014,32 +9132,32 @@
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="24"/>
+      <c r="A79" s="28"/>
       <c r="B79" t="s">
         <v>650</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="24"/>
+      <c r="A80" s="28"/>
       <c r="B80" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="24"/>
+      <c r="A81" s="28"/>
       <c r="B81" t="s">
         <v>652</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>833</v>
-      </c>
-      <c r="D81" t="s">
+        <v>830</v>
+      </c>
+      <c r="D81" s="7" t="s">
         <v>617</v>
       </c>
     </row>
@@ -9057,11 +9175,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="16">
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A64:A69"/>
     <mergeCell ref="A70:A75"/>
     <mergeCell ref="A76:A81"/>
     <mergeCell ref="G1:H1"/>
@@ -9073,6 +9186,11 @@
     <mergeCell ref="A24:A29"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A64:A69"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{A7034CC1-197A-45A8-94B5-65E2964C9C7B}"/>
@@ -9080,6 +9198,39 @@
     <hyperlink ref="D69" r:id="rId3" xr:uid="{99928FAC-B78C-4532-B227-69E6FD028C01}"/>
     <hyperlink ref="D66" r:id="rId4" xr:uid="{94F292D7-88A8-4EF9-947F-42E6198D54F1}"/>
     <hyperlink ref="D78" r:id="rId5" xr:uid="{DDE3165F-E990-45B6-A36E-5855CD512473}"/>
+    <hyperlink ref="D3" r:id="rId6" xr:uid="{92BF22D9-617A-47EE-83EA-F8193721249A}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{5D81D150-DF31-4BAC-A1AC-D128B672729F}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{7C483A2E-560A-46D3-84CB-8135FFCC5110}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{01CF1A6F-CBE2-431B-A877-5F2DB4047515}"/>
+    <hyperlink ref="D7" r:id="rId10" xr:uid="{FF0BACF4-967D-48F5-A4B9-86F7F9AA9F21}"/>
+    <hyperlink ref="D15" r:id="rId11" xr:uid="{8DEE98A8-8BEA-4BB8-9DE6-0FC0D24A5A22}"/>
+    <hyperlink ref="D17" r:id="rId12" xr:uid="{AB530B1B-865C-4767-8850-53A4CD0A1A18}"/>
+    <hyperlink ref="D18" r:id="rId13" xr:uid="{6AE7F238-78FA-46C8-A63F-EF470B1B3145}"/>
+    <hyperlink ref="D22" r:id="rId14" xr:uid="{782A1570-0FF6-4300-A727-C753F38F3353}"/>
+    <hyperlink ref="D24" r:id="rId15" xr:uid="{AF824650-E4CB-42CF-BE5A-03DFC8C88BB9}"/>
+    <hyperlink ref="D26" r:id="rId16" xr:uid="{D23F450A-5E47-48FB-84E0-6C9E4B7AE2F4}"/>
+    <hyperlink ref="D27" r:id="rId17" xr:uid="{E2541B21-EF0D-4E93-98D9-E87CD6197E67}"/>
+    <hyperlink ref="D29" r:id="rId18" xr:uid="{D13C3E0C-554C-42A8-96B1-A69B2C91F665}"/>
+    <hyperlink ref="D31" r:id="rId19" xr:uid="{8735B7D4-D5BD-4F72-94E6-C026EE97F9B5}"/>
+    <hyperlink ref="D33" r:id="rId20" xr:uid="{74A76F72-9C5D-438A-BD92-1B870D202BB6}"/>
+    <hyperlink ref="D38" r:id="rId21" xr:uid="{1929D78B-A061-47FC-A68C-943A13B312F7}"/>
+    <hyperlink ref="D39" r:id="rId22" xr:uid="{8A859B53-E531-43CA-988F-4935F42F36DB}"/>
+    <hyperlink ref="D41" r:id="rId23" xr:uid="{8316AA94-CC88-4085-892A-FD1A6CB1FE9E}"/>
+    <hyperlink ref="D43" r:id="rId24" xr:uid="{765E4C04-7FFB-4E60-9412-2D56B2C20936}"/>
+    <hyperlink ref="D45" r:id="rId25" xr:uid="{98C23ABE-CDB5-4C12-8F00-EFC26B77005B}"/>
+    <hyperlink ref="F45" r:id="rId26" xr:uid="{B53003E9-C3D6-40C8-9641-77D14950F5F3}"/>
+    <hyperlink ref="D47" r:id="rId27" xr:uid="{768DC434-3DED-4538-96D5-1967BEB2F0EB}"/>
+    <hyperlink ref="D52" r:id="rId28" xr:uid="{19C0AF38-B7B2-4923-8C93-28415C1A3FF5}"/>
+    <hyperlink ref="D54" r:id="rId29" xr:uid="{429007BB-1CF2-42C5-8E7C-9C3AFC6FAA3D}"/>
+    <hyperlink ref="D59" r:id="rId30" xr:uid="{BFC9BC7A-046F-4882-AA2A-3DB0E623A7E0}"/>
+    <hyperlink ref="D61" r:id="rId31" xr:uid="{4755E871-AEED-47FE-9773-E2C3D37A4D52}"/>
+    <hyperlink ref="D64" r:id="rId32" xr:uid="{33A53D89-E03F-4B94-82E1-EA4C4218B015}"/>
+    <hyperlink ref="D71" r:id="rId33" xr:uid="{224A3369-E68D-408D-9412-ECEFEB02B577}"/>
+    <hyperlink ref="D73" r:id="rId34" xr:uid="{40A274D9-6BE0-402E-8081-25C91A92D211}"/>
+    <hyperlink ref="D81" r:id="rId35" xr:uid="{1235A480-D2C9-4E47-8BE1-EF356A566C0A}"/>
+    <hyperlink ref="D76" r:id="rId36" xr:uid="{16FD4213-840C-4BF7-B7BA-8E75FDDE74F2}"/>
+    <hyperlink ref="F76" r:id="rId37" xr:uid="{4E342718-949F-4385-9A39-A3EA58AB8CAD}"/>
+    <hyperlink ref="D8" r:id="rId38" xr:uid="{E0C612E1-E051-4EC4-A031-57076171110A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9090,39 +9241,41 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81:D81"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="78" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="C1" s="23" t="s">
+      <c r="A1" s="24"/>
+      <c r="C1" s="27" t="s">
         <v>657</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
         <v>658</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>659</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23" t="s">
+      <c r="H1" s="27"/>
+      <c r="I1" s="27" t="s">
         <v>660</v>
       </c>
-      <c r="J1" s="23"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10">
+      <c r="A2" s="24"/>
       <c r="C2" t="s">
         <v>655</v>
       </c>
@@ -9149,7 +9302,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="28" t="s">
         <v>654</v>
       </c>
       <c r="B3" t="s">
@@ -9169,7 +9322,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="24"/>
+      <c r="A4" s="28"/>
       <c r="B4" t="s">
         <v>648</v>
       </c>
@@ -9187,7 +9340,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="24"/>
+      <c r="A5" s="28"/>
       <c r="B5" t="s">
         <v>649</v>
       </c>
@@ -9211,7 +9364,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="24"/>
+      <c r="A6" s="28"/>
       <c r="B6" t="s">
         <v>650</v>
       </c>
@@ -9229,37 +9382,37 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="24"/>
+      <c r="A7" s="28"/>
       <c r="B7" t="s">
         <v>651</v>
       </c>
       <c r="C7" t="s">
         <v>681</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="25" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="24"/>
+      <c r="A8" s="28"/>
       <c r="B8" t="s">
         <v>652</v>
       </c>
       <c r="C8" t="s">
         <v>678</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="25" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:10" hidden="1">
-      <c r="A9" s="24"/>
+      <c r="A9" s="29"/>
       <c r="B9" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="28" t="s">
         <v>679</v>
       </c>
       <c r="B10" t="s">
@@ -9279,7 +9432,7 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="24"/>
+      <c r="A11" s="28"/>
       <c r="B11" t="s">
         <v>648</v>
       </c>
@@ -9291,7 +9444,7 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="24"/>
+      <c r="A12" s="28"/>
       <c r="B12" t="s">
         <v>649</v>
       </c>
@@ -9315,7 +9468,7 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="24"/>
+      <c r="A13" s="28"/>
       <c r="B13" t="s">
         <v>650</v>
       </c>
@@ -9327,13 +9480,13 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="24"/>
+      <c r="A14" s="28"/>
       <c r="B14" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="24"/>
+      <c r="A15" s="28"/>
       <c r="B15" t="s">
         <v>652</v>
       </c>
@@ -9350,7 +9503,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="28" t="s">
         <v>712</v>
       </c>
       <c r="B17" t="s">
@@ -9365,12 +9518,12 @@
       <c r="E17" t="s">
         <v>699</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="24"/>
+      <c r="A18" s="28"/>
       <c r="B18" t="s">
         <v>648</v>
       </c>
@@ -9382,7 +9535,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="24"/>
+      <c r="A19" s="28"/>
       <c r="B19" t="s">
         <v>649</v>
       </c>
@@ -9395,12 +9548,12 @@
       <c r="E19" s="19" t="s">
         <v>701</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="24"/>
+      <c r="A20" s="28"/>
       <c r="B20" t="s">
         <v>650</v>
       </c>
@@ -9412,13 +9565,13 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="24"/>
+      <c r="A21" s="28"/>
       <c r="B21" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="24"/>
+      <c r="A22" s="28"/>
       <c r="B22" t="s">
         <v>652</v>
       </c>
@@ -9435,21 +9588,21 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="28" t="s">
         <v>713</v>
       </c>
       <c r="B24" t="s">
         <v>647</v>
       </c>
       <c r="C24" t="s">
-        <v>229</v>
-      </c>
-      <c r="D24" t="s">
+        <v>833</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="24"/>
+      <c r="A25" s="28"/>
       <c r="B25" t="s">
         <v>648</v>
       </c>
@@ -9467,7 +9620,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="24"/>
+      <c r="A26" s="28"/>
       <c r="B26" t="s">
         <v>649</v>
       </c>
@@ -9480,12 +9633,12 @@
       <c r="E26" t="s">
         <v>717</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="24"/>
+      <c r="A27" s="28"/>
       <c r="B27" t="s">
         <v>650</v>
       </c>
@@ -9497,13 +9650,13 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="24"/>
+      <c r="A28" s="28"/>
       <c r="B28" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="24"/>
+      <c r="A29" s="28"/>
       <c r="B29" t="s">
         <v>652</v>
       </c>
@@ -9520,7 +9673,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="28" t="s">
         <v>738</v>
       </c>
       <c r="B31" t="s">
@@ -9529,66 +9682,66 @@
       <c r="C31" t="s">
         <v>737</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="24"/>
+      <c r="A32" s="28"/>
       <c r="B32" t="s">
         <v>648</v>
       </c>
       <c r="C32" t="s">
         <v>734</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="7" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="24"/>
+      <c r="A33" s="28"/>
       <c r="B33" t="s">
         <v>649</v>
       </c>
       <c r="C33" t="s">
         <v>727</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="7" t="s">
         <v>200</v>
       </c>
       <c r="E33" t="s">
         <v>728</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="7" t="s">
         <v>202</v>
       </c>
       <c r="G33" t="s">
         <v>729</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="7" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="24"/>
+      <c r="A34" s="28"/>
       <c r="B34" t="s">
         <v>650</v>
       </c>
       <c r="C34" t="s">
-        <v>602</v>
-      </c>
-      <c r="D34" t="s">
+        <v>831</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="24"/>
+      <c r="A35" s="28"/>
       <c r="B35" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="24"/>
+      <c r="A36" s="28"/>
       <c r="B36" t="s">
         <v>652</v>
       </c>
@@ -9605,7 +9758,7 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="28" t="s">
         <v>739</v>
       </c>
       <c r="B38" t="s">
@@ -9614,66 +9767,66 @@
       <c r="C38" s="19" t="s">
         <v>754</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="7" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="24"/>
+      <c r="A39" s="28"/>
       <c r="B39" t="s">
         <v>648</v>
       </c>
       <c r="C39" t="s">
         <v>748</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="7" t="s">
         <v>61</v>
       </c>
       <c r="E39" t="s">
         <v>749</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="7" t="s">
         <v>59</v>
       </c>
       <c r="G39" t="s">
         <v>750</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="24"/>
+      <c r="A40" s="28"/>
       <c r="B40" t="s">
         <v>649</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>756</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="7" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="24"/>
+      <c r="A41" s="28"/>
       <c r="B41" t="s">
         <v>650</v>
       </c>
       <c r="C41" t="s">
         <v>752</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="7" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="24"/>
+      <c r="A42" s="28"/>
       <c r="B42" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="24"/>
+      <c r="A43" s="28"/>
       <c r="B43" t="s">
         <v>652</v>
       </c>
@@ -9690,7 +9843,7 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="28" t="s">
         <v>740</v>
       </c>
       <c r="B45" t="s">
@@ -9699,79 +9852,79 @@
       <c r="C45" t="s">
         <v>758</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="7" t="s">
         <v>142</v>
       </c>
       <c r="E45" t="s">
         <v>757</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="7" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="24"/>
+      <c r="A46" s="28"/>
       <c r="B46" t="s">
         <v>648</v>
       </c>
       <c r="C46" t="s">
         <v>766</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="7" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="24"/>
+      <c r="A47" s="28"/>
       <c r="B47" t="s">
         <v>649</v>
       </c>
       <c r="C47" t="s">
         <v>762</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="7" t="s">
         <v>324</v>
       </c>
       <c r="E47" t="s">
         <v>763</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="7" t="s">
         <v>326</v>
       </c>
       <c r="G47" t="s">
         <v>729</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="7" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="24"/>
+      <c r="A48" s="28"/>
       <c r="B48" t="s">
         <v>650</v>
       </c>
       <c r="C48" t="s">
         <v>768</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="7" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="24"/>
+      <c r="A49" s="28"/>
       <c r="B49" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="24"/>
+      <c r="A50" s="28"/>
       <c r="B50" t="s">
         <v>652</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>769</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="7" t="s">
         <v>596</v>
       </c>
     </row>
@@ -9781,402 +9934,402 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="28" t="s">
         <v>741</v>
       </c>
       <c r="B52" t="s">
         <v>647</v>
       </c>
       <c r="C52" t="s">
-        <v>771</v>
-      </c>
-      <c r="D52" t="s">
+        <v>836</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="24"/>
+      <c r="A53" s="28"/>
       <c r="B53" t="s">
         <v>648</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>778</v>
-      </c>
-      <c r="D53" t="s">
-        <v>503</v>
+        <v>776</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="24"/>
+      <c r="A54" s="28"/>
       <c r="B54" t="s">
         <v>649</v>
       </c>
       <c r="C54" t="s">
-        <v>774</v>
-      </c>
-      <c r="D54" t="s">
+        <v>772</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E54" t="s">
-        <v>775</v>
-      </c>
-      <c r="F54" t="s">
+        <v>773</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="24"/>
+      <c r="A55" s="28"/>
       <c r="B55" t="s">
         <v>650</v>
       </c>
-      <c r="C55" s="26" t="s">
-        <v>782</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C55" s="23" t="s">
+        <v>780</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="24"/>
+      <c r="A56" s="28"/>
       <c r="B56" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="24"/>
+      <c r="A57" s="28"/>
       <c r="B57" t="s">
         <v>652</v>
       </c>
       <c r="C57" t="s">
-        <v>779</v>
-      </c>
-      <c r="D57" t="s">
+        <v>777</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="30" t="s">
         <v>742</v>
       </c>
       <c r="B58" t="s">
         <v>647</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>789</v>
-      </c>
-      <c r="D58" t="s">
+        <v>786</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>536</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>790</v>
-      </c>
-      <c r="F58" t="s">
+        <v>787</v>
+      </c>
+      <c r="F58" s="7" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="24"/>
+      <c r="A59" s="30"/>
       <c r="B59" t="s">
         <v>648</v>
       </c>
       <c r="C59" t="s">
-        <v>785</v>
-      </c>
-      <c r="D59" t="s">
+        <v>783</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="24"/>
+      <c r="A60" s="30"/>
       <c r="B60" t="s">
         <v>649</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="22" t="s">
         <v>755</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="7" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="24"/>
+      <c r="A61" s="30"/>
       <c r="B61" t="s">
         <v>650</v>
       </c>
       <c r="C61" t="s">
-        <v>787</v>
-      </c>
-      <c r="D61" t="s">
+        <v>784</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>128</v>
       </c>
       <c r="E61" t="s">
         <v>129</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="7" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="24"/>
+      <c r="A62" s="30"/>
       <c r="B62" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="24"/>
+      <c r="A63" s="30"/>
       <c r="B63" t="s">
         <v>652</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>794</v>
-      </c>
-      <c r="D63" t="s">
+        <v>791</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="28" t="s">
         <v>743</v>
       </c>
       <c r="B64" t="s">
         <v>647</v>
       </c>
       <c r="C64" t="s">
-        <v>795</v>
-      </c>
-      <c r="D64" t="s">
+        <v>792</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="24"/>
+      <c r="A65" s="28"/>
       <c r="B65" t="s">
         <v>648</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>802</v>
-      </c>
-      <c r="D65" t="s">
+        <v>799</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="24"/>
+      <c r="A66" s="28"/>
       <c r="B66" t="s">
         <v>649</v>
       </c>
       <c r="C66" t="s">
-        <v>798</v>
-      </c>
-      <c r="D66" t="s">
+        <v>795</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E66" t="s">
-        <v>799</v>
-      </c>
-      <c r="F66" t="s">
+        <v>796</v>
+      </c>
+      <c r="F66" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G66" t="s">
-        <v>800</v>
-      </c>
-      <c r="H66" t="s">
+        <v>797</v>
+      </c>
+      <c r="H66" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="24"/>
+      <c r="A67" s="28"/>
       <c r="B67" t="s">
         <v>650</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>803</v>
-      </c>
-      <c r="D67" t="s">
+        <v>800</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="24"/>
+      <c r="A68" s="28"/>
       <c r="B68" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="24"/>
+      <c r="A69" s="28"/>
       <c r="B69" t="s">
         <v>652</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="24" t="s">
+      <c r="A70" s="28" t="s">
         <v>744</v>
       </c>
       <c r="B70" t="s">
         <v>647</v>
       </c>
       <c r="C70" t="s">
-        <v>816</v>
-      </c>
-      <c r="D70" t="s">
+        <v>813</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="24"/>
+      <c r="A71" s="28"/>
       <c r="B71" t="s">
         <v>648</v>
       </c>
       <c r="C71" t="s">
-        <v>807</v>
-      </c>
-      <c r="D71" t="s">
+        <v>804</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="24"/>
+      <c r="A72" s="28"/>
       <c r="B72" t="s">
         <v>649</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>817</v>
-      </c>
-      <c r="D72" t="s">
+        <v>814</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="24"/>
+      <c r="A73" s="28"/>
       <c r="B73" t="s">
         <v>650</v>
       </c>
       <c r="C73" t="s">
-        <v>811</v>
-      </c>
-      <c r="D73" t="s">
+        <v>808</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E73" t="s">
-        <v>812</v>
-      </c>
-      <c r="F73" t="s">
+        <v>809</v>
+      </c>
+      <c r="F73" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="24"/>
+      <c r="A74" s="28"/>
       <c r="B74" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="24"/>
+      <c r="A75" s="28"/>
       <c r="B75" t="s">
         <v>652</v>
       </c>
       <c r="C75" t="s">
-        <v>813</v>
-      </c>
-      <c r="D75" t="s">
+        <v>810</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="24" t="s">
-        <v>744</v>
+      <c r="A76" s="28" t="s">
+        <v>745</v>
       </c>
       <c r="B76" t="s">
         <v>647</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>824</v>
-      </c>
-      <c r="D76" t="s">
+        <v>821</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>407</v>
       </c>
       <c r="E76" t="s">
-        <v>825</v>
-      </c>
-      <c r="F76" t="s">
+        <v>822</v>
+      </c>
+      <c r="F76" s="7" t="s">
         <v>409</v>
       </c>
       <c r="G76" t="s">
-        <v>826</v>
-      </c>
-      <c r="H76" t="s">
+        <v>832</v>
+      </c>
+      <c r="H76" s="7" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="24"/>
+      <c r="A77" s="28"/>
       <c r="B77" t="s">
         <v>648</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>802</v>
-      </c>
-      <c r="D77" t="s">
+        <v>799</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="24"/>
+      <c r="A78" s="28"/>
       <c r="B78" t="s">
         <v>649</v>
       </c>
       <c r="C78" t="s">
-        <v>827</v>
-      </c>
-      <c r="D78" t="s">
+        <v>824</v>
+      </c>
+      <c r="D78" s="7" t="s">
         <v>312</v>
       </c>
       <c r="E78" t="s">
-        <v>828</v>
-      </c>
-      <c r="F78" t="s">
+        <v>825</v>
+      </c>
+      <c r="F78" s="7" t="s">
         <v>314</v>
       </c>
       <c r="G78" t="s">
-        <v>829</v>
-      </c>
-      <c r="H78" t="s">
+        <v>826</v>
+      </c>
+      <c r="H78" s="7" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="24"/>
+      <c r="A79" s="28"/>
       <c r="B79" t="s">
         <v>650</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>832</v>
-      </c>
-      <c r="D79" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="D79" s="25" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="24"/>
+      <c r="A80" s="28"/>
       <c r="B80" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="24"/>
+      <c r="A81" s="28"/>
       <c r="B81" t="s">
         <v>652</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>833</v>
-      </c>
-      <c r="D81" t="s">
+        <v>830</v>
+      </c>
+      <c r="D81" s="7" t="s">
         <v>617</v>
       </c>
     </row>
@@ -10215,6 +10368,67 @@
     <hyperlink ref="D25" r:id="rId1" xr:uid="{9B780CF6-E735-4572-BEFB-34C2BE589A9C}"/>
     <hyperlink ref="D43" r:id="rId2" xr:uid="{633B0EB3-5E59-45FF-B6D2-DF1F0561F93E}"/>
     <hyperlink ref="D69" r:id="rId3" xr:uid="{9FFCA85C-ABC2-4164-8926-959FD90537C4}"/>
+    <hyperlink ref="D31" r:id="rId4" xr:uid="{ADB98EEE-05D2-47FC-B0A9-A61DE0013F8E}"/>
+    <hyperlink ref="D32" r:id="rId5" xr:uid="{1D1E0902-1642-4F10-A370-418BD1B6CED1}"/>
+    <hyperlink ref="D33" r:id="rId6" xr:uid="{D415D8CE-9E9D-4874-900B-C0FC81EF554C}"/>
+    <hyperlink ref="F33" r:id="rId7" xr:uid="{5E5ED968-F925-4A91-8403-817729FFBF70}"/>
+    <hyperlink ref="H33" r:id="rId8" xr:uid="{12E0262F-92C4-42BC-8B1F-A19EB71D15E7}"/>
+    <hyperlink ref="D34" r:id="rId9" xr:uid="{DA491CF0-42A2-4BD1-994B-575DCA49C84A}"/>
+    <hyperlink ref="D36" r:id="rId10" xr:uid="{6CCEE867-326D-4FAA-8FCF-F2F25BE87951}"/>
+    <hyperlink ref="D38" r:id="rId11" xr:uid="{C5AE2EF5-E504-4E09-BC9E-5DBFE4874B2C}"/>
+    <hyperlink ref="D39" r:id="rId12" xr:uid="{E5959989-D0CB-4483-9B13-11A4B62192AA}"/>
+    <hyperlink ref="D40" r:id="rId13" xr:uid="{2FBDB321-6A02-43CB-B73E-C4C80B2DFD3F}"/>
+    <hyperlink ref="F39" r:id="rId14" xr:uid="{7D3B5957-06B5-42A0-859F-C15BA5DE5A5E}"/>
+    <hyperlink ref="H39" r:id="rId15" xr:uid="{C88AC61E-F82F-4F92-9A08-5FE3C9E03FBB}"/>
+    <hyperlink ref="D41" r:id="rId16" xr:uid="{DD322111-8C73-48A1-8F70-8B4A66BD5E11}"/>
+    <hyperlink ref="D45" r:id="rId17" xr:uid="{074D5940-8116-47DE-9E4A-036B86AD9634}"/>
+    <hyperlink ref="F45" r:id="rId18" xr:uid="{4E7B6004-86B0-41BE-969E-1A0BFFCACBFF}"/>
+    <hyperlink ref="D46" r:id="rId19" xr:uid="{38094A24-6A29-4A2F-BE9D-008A1BF5FFC4}"/>
+    <hyperlink ref="D47" r:id="rId20" xr:uid="{0F76AC68-E1D8-4623-A4A8-A62152E9265E}"/>
+    <hyperlink ref="F47" r:id="rId21" xr:uid="{118D9247-E60D-4201-AAE0-3481EB068959}"/>
+    <hyperlink ref="H47" r:id="rId22" xr:uid="{CD8A8E10-C568-4AC1-A7FE-20DC61ADA398}"/>
+    <hyperlink ref="D48" r:id="rId23" xr:uid="{30AC6BD9-2F3A-4EDF-9C49-53508326B743}"/>
+    <hyperlink ref="D50" r:id="rId24" xr:uid="{D3791B70-E307-4C4A-8A6E-D24320FF56C3}"/>
+    <hyperlink ref="D52" r:id="rId25" xr:uid="{E2297808-B6BF-464B-A628-07DF9A245E14}"/>
+    <hyperlink ref="D53" r:id="rId26" xr:uid="{9723E0B1-4F34-48EA-AE5C-9D4C4C99D35A}"/>
+    <hyperlink ref="D54" r:id="rId27" xr:uid="{666192FD-9C6D-4823-B3C5-B2292CA11029}"/>
+    <hyperlink ref="F54" r:id="rId28" xr:uid="{95607E8A-28E5-48DF-BBD7-C3C60448B62E}"/>
+    <hyperlink ref="D55" r:id="rId29" xr:uid="{BEAA95B2-D6D1-4374-96B0-D7FADCECCBD5}"/>
+    <hyperlink ref="D63" r:id="rId30" xr:uid="{506D550E-2F5E-4BB2-B1B3-7B888F6441CB}"/>
+    <hyperlink ref="D58" r:id="rId31" xr:uid="{B9C9D760-DF2D-4929-A434-5EAA8605E582}"/>
+    <hyperlink ref="D59" r:id="rId32" xr:uid="{269E8C14-4476-4F07-B7A4-F191A32B0175}"/>
+    <hyperlink ref="D60" r:id="rId33" xr:uid="{74E417BE-AF15-4BB0-9FDA-00AE3DA66637}"/>
+    <hyperlink ref="F58" r:id="rId34" xr:uid="{9B47F656-50ED-4D12-ADF8-3F47A52AD6BE}"/>
+    <hyperlink ref="D61" r:id="rId35" xr:uid="{5353CF31-7293-42F5-941A-276174599B0E}"/>
+    <hyperlink ref="F61" r:id="rId36" xr:uid="{B30EAAAC-2294-4836-8726-4F4A80BB3122}"/>
+    <hyperlink ref="D57" r:id="rId37" xr:uid="{1644D18F-4E43-48F1-9FA8-5E56EF9CD9AF}"/>
+    <hyperlink ref="D64" r:id="rId38" xr:uid="{DD11896A-34AE-4128-A155-153999365DFD}"/>
+    <hyperlink ref="D65" r:id="rId39" xr:uid="{3CA10636-F1A6-412D-9CA5-B5456A0EE3C6}"/>
+    <hyperlink ref="D66" r:id="rId40" xr:uid="{CCB49F6F-49BB-405A-97F3-FFE8CE509E43}"/>
+    <hyperlink ref="F66" r:id="rId41" xr:uid="{32C06A7A-C14B-48E0-9B55-A8592A80120E}"/>
+    <hyperlink ref="H66" r:id="rId42" xr:uid="{338807B0-51F2-4F6C-94A0-F6D1A05905C0}"/>
+    <hyperlink ref="D67" r:id="rId43" xr:uid="{DF5B83F4-16FB-43E1-BFCB-A433EE07E226}"/>
+    <hyperlink ref="D70" r:id="rId44" xr:uid="{6EA0AF44-6B79-4970-91FA-1DFDD6E96F60}"/>
+    <hyperlink ref="D71" r:id="rId45" xr:uid="{A2555702-A832-4AB9-B84A-94FA6810ECA0}"/>
+    <hyperlink ref="D72" r:id="rId46" xr:uid="{5B31C61A-2EA0-40F0-9E89-F831F272D4EF}"/>
+    <hyperlink ref="D73" r:id="rId47" xr:uid="{F2E9505C-EFC3-4AEC-89A3-BBC9F230DF1E}"/>
+    <hyperlink ref="F73" r:id="rId48" xr:uid="{185D749F-E4FD-4FD4-B44D-651EE0B1581A}"/>
+    <hyperlink ref="D75" r:id="rId49" xr:uid="{3CB449F7-63C5-463B-A27B-783A461805C7}"/>
+    <hyperlink ref="D76" r:id="rId50" xr:uid="{708A6C3B-4297-4EDA-AA96-5ABCBDB2B7EB}"/>
+    <hyperlink ref="D77" r:id="rId51" xr:uid="{73AB9058-437E-4C5D-BAF1-E5153B42B7BC}"/>
+    <hyperlink ref="D78" r:id="rId52" xr:uid="{E248498E-12A3-4BB7-AA8E-669C8E6197E7}"/>
+    <hyperlink ref="F78" r:id="rId53" xr:uid="{C5931B65-355C-41D3-985B-E9E77AE6791A}"/>
+    <hyperlink ref="H78" r:id="rId54" xr:uid="{588F8360-8639-4C94-9A11-C83271673665}"/>
+    <hyperlink ref="D79" r:id="rId55" xr:uid="{8625DBD2-1011-4CA4-AFFA-535DCA7BA909}"/>
+    <hyperlink ref="D81" r:id="rId56" xr:uid="{BCA71082-FD7C-4859-8937-023DF4F16F11}"/>
+    <hyperlink ref="F76" r:id="rId57" xr:uid="{B1F117D9-8D4C-425C-B1BC-3D1CF7C991F4}"/>
+    <hyperlink ref="H76" r:id="rId58" xr:uid="{7528AE0B-B4DC-4369-8337-49A2A26D67A3}"/>
+    <hyperlink ref="F17" r:id="rId59" xr:uid="{72ED117B-6BF8-47BB-84E3-FD86F6BC038D}"/>
+    <hyperlink ref="D24" r:id="rId60" xr:uid="{29D5998D-CA89-458F-B4D3-6D538D5E641A}"/>
+    <hyperlink ref="F26" r:id="rId61" xr:uid="{1B27BEE6-A658-4DA7-9221-23477898042F}"/>
+    <hyperlink ref="D8" r:id="rId62" xr:uid="{2E03213E-D7F3-4F68-B8F6-4308A203C99E}"/>
+    <hyperlink ref="D7" r:id="rId63" xr:uid="{908D526E-0CC0-49B0-9C07-BDC1AE74794D}"/>
+    <hyperlink ref="F19" r:id="rId64" xr:uid="{038D995F-9CF3-4720-89ED-9A10D8919A6F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
